--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -575,7 +575,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45834</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45254.39513888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45103</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>46042.42626157407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45643.45725694444</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45980.55704861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>44531</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44574</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44643.43515046296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45370.46076388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45863.56149305555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45863.54122685185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>45758.76966435185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45628</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45925.45873842593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>46035.67405092593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45995.49295138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45961</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44298.62740740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44574</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44278.5759837963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44274.37855324074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44442.44880787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44308.34251157408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44357.52767361111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44305</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44722.83488425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44643.43207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44831.72481481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44427.39738425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44281.70380787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44371.46142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44477.68685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44344.89709490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44440.85440972223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44832.65900462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44575</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44747</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44851</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44368.64753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44512.45628472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44428.60674768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>44412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44375.39219907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45687.59722222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45252.37432870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45267.34677083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45082</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44967</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45510.52006944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44281.70633101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45008.4775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45243</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45265.48141203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45123</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45123</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45671.64038194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45314</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45496.64188657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45729.60373842593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45232.43732638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45583.37766203703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>45583.38604166666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44571.43868055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44855.42674768518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44438.37149305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45138.3903125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45447.66854166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44684.49467592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45656.48398148148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45505.45959490741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45598</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45598</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45799</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45799.46366898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>45799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44809.62644675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45799</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45803.60725694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>45560.90378472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45803.61549768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45800.6515162037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45453.90877314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45269</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45803.62076388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45265</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45751.63969907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45804.49783564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>45807.47263888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45807.47407407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>45593.46292824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45499.60596064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>45040</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>45257.66511574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>45817.30672453704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>45079</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44746</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>45897.3830787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>45756.6733912037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>45897.3397800926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>45897.38670138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45015</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>45896.60225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45897.39358796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45896.60366898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45897.34166666667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45792</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45348.59315972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>45818.66671296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>45818.81280092592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>45541</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45817.75277777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45903.66252314814</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45058</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44753.56021990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>45909.35978009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>45541</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>45093.38451388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44980</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45496.64081018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45496.64434027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>45910.39777777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>45910.60125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45911.34414351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>45827.35201388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>45827.35545138889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>45915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>45036</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>45919.53</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>45918</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>45721.53988425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>45919.63253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>45917.86349537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45492.53064814815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45266.65486111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45922.57319444444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45919.82200231482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44687.56876157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45925.45247685185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44460.55533564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45929.58412037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44587.26690972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>45719.54474537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>45196.93763888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45196.94094907407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45328</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45933.60197916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45446.43140046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45936.42234953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45936.40972222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45937.69153935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45611.54230324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44746.45998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45729.58903935185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>45729</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45939</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45937.70412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>45007</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45939.64701388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>45162.39258101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45943.6643287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45684.55741898148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45514</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45899.36081018519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45527.44376157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45943.78539351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45902.84729166667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45944.82208333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45943.78372685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45940</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45946.55805555556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45947.67347222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45948.91614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45602.30305555555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45708.85030092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45948.90693287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45948.91340277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45951.49759259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45370.48724537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45511.446875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>45863.54708333333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>45776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45863.54924768519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45863.54394675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45796</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45866</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45953.73898148148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45953.73703703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>45867.40835648148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44368</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>45574.37385416667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45957.50334490741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45729.57234953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>45954.45457175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>45008.50270833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>45007</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45505.46431712963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45796.9152662037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44971.69914351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45796.90516203704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45138.40166666666</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45783.64758101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45721.53792824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44972</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45877.39608796296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45877.39427083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45560.90010416666</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45496.64266203704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45457.67018518518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45964</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>45736</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45800.36340277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45881.36699074074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45321.41290509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45044</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45967.38487268519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45912.36398148148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45889.36387731481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45269</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45973.58447916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44977</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45628.32282407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45975.62692129629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45007</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45884.66238425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44861</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45979.65329861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45729.40608796296</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45980</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45982.70609953703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>46024.65224537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>46024.65234953703</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45719.55408564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>46030.34128472222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45902.84958333334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45453.44587962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>46034.33011574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44309</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45497.7091087963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45694.36291666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>46036.41313657408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45734.52072916667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45040.6084837963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45370.35925925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45994.47056712963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45756</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>44581</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45715</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45441.59877314815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45902.85230324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45996.44425925926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>46036</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45930</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45058</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45996</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45996.44611111111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>45996.44229166667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45455</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45072</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45281.67271990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45330.58921296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45999.83986111111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44876</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>46000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>46042.41658564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45274</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45649.41373842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45702.85523148148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44839</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>46045</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>46049.45141203704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>46049.46445601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>46049.44555555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>46048.61894675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45505.66716435185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44551</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44966</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45210.72341435185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44971.70265046296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45182</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44893</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45671.59969907408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>46013.42413194444</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>46010.57958333333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>46055.58894675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>46055.59717592593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>46013.41940972222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44734.45548611111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45769.62832175926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>46021.77726851852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45009.32672453704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45009</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45569.31140046296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>45562.61946759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44283.85297453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45191</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44739</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45473.51564814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45190</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45231.406875</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44900</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44344.89642361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45058</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45583.38296296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45583</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45549.47034722222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44433.6797337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44613</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45273</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44840.33315972222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45266.67453703703</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45190</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45473.50560185185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45408</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44875.34275462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44277.39545138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45008.44704861111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45763.45927083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45316.67782407408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45473.49309027778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45602.28886574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44739.429375</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45625.55699074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45646.56313657408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45264.94263888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45078.64047453704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45123.68409722222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45562.62109953703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45721.54224537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45453.72688657408</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>45639.39581018518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45777.43148148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45369</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45783.65847222223</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45783.65224537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45405.45550925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45553</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44371.45925925926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45510.39645833334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45791.45935185185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45791.39899305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45316.6802662037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>45792.60416666666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44998.51373842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45796.64581018518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45405.45806712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45238.36009259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45702.8528125</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45796.90869212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45796.91277777778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45796.92254629629</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -575,7 +575,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45834</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45254.39513888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45103</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>46042.42626157407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45643.45725694444</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         <v>45470</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>45980.55704861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>44531</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44574</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44643.43515046296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45240</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>45370.46076388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45863.56149305555</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2229,7 +2229,7 @@
         <v>45863.54122685185</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>45758.76966435185</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45628</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45925.45873842593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>46035.67405092593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45995.49295138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45961</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44298.62740740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44574</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44278.5759837963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44274.37855324074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44442.44880787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44308.34251157408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44356</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44357.52767361111</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44305</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44722.83488425926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>44643.43207175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44831.72481481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44427.39738425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44281.70380787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44371.46142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44477.68685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44344.89709490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44440.85440972223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44832.65900462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44575</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44747</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44851</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44368.64753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44512.45628472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44428.60674768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>44412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44375.39219907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45687.59722222222</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>44963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>45252.37432870371</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>45267.34677083333</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45082</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44967</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45510.52006944444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>44281.70633101852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45008.4775</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45243</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45265.48141203704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45123</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45123</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45671.64038194445</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45314</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45496.64188657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45729.60373842593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45232.43732638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45583.37766203703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>45583.38604166666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44571.43868055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44855.42674768518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>44438.37149305556</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>45138.3903125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45447.66854166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44614</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44684.49467592593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45656.48398148148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45505.45959490741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         <v>45598</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45598</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45799</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45799.46366898148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>45799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>44809.62644675926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45799</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45803.60725694444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7297,7 +7297,7 @@
         <v>45560.90378472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7354,7 +7354,7 @@
         <v>45803.61549768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
         <v>45800.6515162037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7468,7 +7468,7 @@
         <v>45453.90877314815</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7525,7 +7525,7 @@
         <v>45269</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
         <v>45803.62076388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7639,7 +7639,7 @@
         <v>45265</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         <v>45751.63969907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
         <v>45804.49783564815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>45807.47263888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         <v>45807.47407407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         <v>45593.46292824074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         <v>45499.60596064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         <v>45040</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         <v>45257.66511574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         <v>45817.30672453704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         <v>45079</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44746</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>45897.3830787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>45756.6733912037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>45897.3397800926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>45897.38670138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>45015</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>45896.60225694445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>45897.39358796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>45896.60366898148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         <v>45897.34166666667</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>45792</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         <v>45348.59315972222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         <v>45818.66671296296</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         <v>45818.81280092592</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>45541</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>45817.75277777778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>45903.66252314814</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>45058</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9312,7 +9312,7 @@
         <v>44753.56021990741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9369,7 +9369,7 @@
         <v>45909.35978009259</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9426,7 +9426,7 @@
         <v>45541</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9483,7 +9483,7 @@
         <v>45093.38451388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9540,7 +9540,7 @@
         <v>44980</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>45496.64081018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>45496.64434027778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>45910.39777777778</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>45910.60125</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>45911.34414351852</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>45827.35201388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>45827.35545138889</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>45915</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>45036</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>45919.53</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         <v>45583</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10244,7 +10244,7 @@
         <v>45918</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10301,7 +10301,7 @@
         <v>45721.53988425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10363,7 +10363,7 @@
         <v>45919.63253472222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10420,7 +10420,7 @@
         <v>45917.86349537037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>45492.53064814815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>45266.65486111111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>45922.57319444444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45919.82200231482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         <v>44687.56876157408</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10824,7 +10824,7 @@
         <v>45925.45247685185</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10881,7 +10881,7 @@
         <v>44460.55533564815</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10938,7 +10938,7 @@
         <v>45929.58412037037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10995,7 +10995,7 @@
         <v>44587.26690972222</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11052,7 +11052,7 @@
         <v>45719.54474537037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11109,7 +11109,7 @@
         <v>45196.93763888889</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11171,7 +11171,7 @@
         <v>45196.94094907407</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11233,7 +11233,7 @@
         <v>45328</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11290,7 +11290,7 @@
         <v>45933.60197916667</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45446.43140046296</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>45936.42234953704</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45936.40972222222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>45937.69153935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11575,7 +11575,7 @@
         <v>45611.54230324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>44746.45998842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45729.58903935185</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>45729</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>45939</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11865,7 +11865,7 @@
         <v>45937.70412037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11922,7 +11922,7 @@
         <v>45007</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11979,7 +11979,7 @@
         <v>45939.64701388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>44508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>45162.39258101852</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>45943.6643287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12207,7 +12207,7 @@
         <v>45684.55741898148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12264,7 +12264,7 @@
         <v>45514</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>45899.36081018519</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         <v>45527.44376157408</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
         <v>45943.78539351852</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>45902.84729166667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>45944.82208333333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
         <v>45943.78372685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12673,7 +12673,7 @@
         <v>45940</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         <v>45946.55805555556</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12787,7 +12787,7 @@
         <v>45947.67347222222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12844,7 +12844,7 @@
         <v>45948.91614583333</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12901,7 +12901,7 @@
         <v>45602.30305555555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12958,7 +12958,7 @@
         <v>45708.85030092593</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13015,7 +13015,7 @@
         <v>45948.90693287037</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
         <v>45948.91340277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         <v>44650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13186,7 +13186,7 @@
         <v>45951.49759259259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>45370.48724537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>45511.446875</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>45863.54708333333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>45776</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13476,7 +13476,7 @@
         <v>45863.54924768519</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>45863.54394675926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45796</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13657,7 +13657,7 @@
         <v>45866</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>45953.73898148148</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13771,7 +13771,7 @@
         <v>45953.73703703703</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13828,7 +13828,7 @@
         <v>45867.40835648148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13885,7 +13885,7 @@
         <v>44368</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13942,7 +13942,7 @@
         <v>45574.37385416667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>45957.50334490741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14056,7 +14056,7 @@
         <v>45729.57234953704</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14113,7 +14113,7 @@
         <v>45954.45457175926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>45008.50270833333</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         <v>45007</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14284,7 +14284,7 @@
         <v>45505.46431712963</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>45796.9152662037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14398,7 +14398,7 @@
         <v>44971.69914351852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>45796.90516203704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>45138.40166666666</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>44616</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>45875</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14683,7 +14683,7 @@
         <v>45783.64758101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14740,7 +14740,7 @@
         <v>45721.53792824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44972</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>45877.39608796296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>45877.39427083333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>45560.90010416666</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>45496.64266203704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15092,7 +15092,7 @@
         <v>45457.67018518518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15149,7 +15149,7 @@
         <v>45964</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>45736</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15263,7 +15263,7 @@
         <v>45736</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15320,7 +15320,7 @@
         <v>45800.36340277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15382,7 +15382,7 @@
         <v>45881.36699074074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15439,7 +15439,7 @@
         <v>45321.41290509259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15496,7 +15496,7 @@
         <v>45044</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>45967.38487268519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>45912.36398148148</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>45889.36387731481</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15739,7 +15739,7 @@
         <v>45269</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15796,7 +15796,7 @@
         <v>45973.58447916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15853,7 +15853,7 @@
         <v>44977</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15910,7 +15910,7 @@
         <v>45628.32282407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>45975.62692129629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>45007</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>45884.66238425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44861</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>45979.65329861111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>45729.40608796296</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>45980</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>45982.70609953703</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>46024.65224537037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>46024.65234953703</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>45719.55408564815</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>46030.34128472222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>45902.84958333334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>45453.44587962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>46034.33011574074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44309</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>45497.7091087963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16946,7 +16946,7 @@
         <v>45694.36291666667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>46036.41313657408</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>45734.52072916667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>45040.6084837963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>45370.35925925926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>45994.47056712963</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17288,7 +17288,7 @@
         <v>45756</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17345,7 +17345,7 @@
         <v>44581</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>45715</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17459,7 +17459,7 @@
         <v>45441.59877314815</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17516,7 +17516,7 @@
         <v>45902.85230324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17573,7 +17573,7 @@
         <v>45996.44425925926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>46036</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>45930</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>45058</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45996</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17858,7 +17858,7 @@
         <v>45996.44611111111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17915,7 +17915,7 @@
         <v>45996.44229166667</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17972,7 +17972,7 @@
         <v>45455</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>45072</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18091,7 +18091,7 @@
         <v>45281.67271990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18148,7 +18148,7 @@
         <v>45330.58921296296</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18205,7 +18205,7 @@
         <v>45999.83986111111</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18262,7 +18262,7 @@
         <v>44876</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18324,7 +18324,7 @@
         <v>46000</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18381,7 +18381,7 @@
         <v>46042.41658564815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18438,7 +18438,7 @@
         <v>45232</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18495,7 +18495,7 @@
         <v>45274</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>45649.41373842592</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18609,7 +18609,7 @@
         <v>45702.85523148148</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18666,7 +18666,7 @@
         <v>44839</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18723,7 +18723,7 @@
         <v>46045</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18785,7 +18785,7 @@
         <v>46049.45141203704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18842,7 +18842,7 @@
         <v>46049.46445601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18899,7 +18899,7 @@
         <v>46049.44555555555</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18956,7 +18956,7 @@
         <v>46048.61894675926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19013,7 +19013,7 @@
         <v>45505.66716435185</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>44551</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19127,7 +19127,7 @@
         <v>44966</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19184,7 +19184,7 @@
         <v>45210.72341435185</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19241,7 +19241,7 @@
         <v>44971.70265046296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45182</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>44893</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>45671.59969907408</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19469,7 +19469,7 @@
         <v>46013.42413194444</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19526,7 +19526,7 @@
         <v>46010.57958333333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19583,7 +19583,7 @@
         <v>46055.58894675926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>46055.59717592593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19697,7 +19697,7 @@
         <v>46013.41940972222</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19754,7 +19754,7 @@
         <v>44734.45548611111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19811,7 +19811,7 @@
         <v>45769.62832175926</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19868,7 +19868,7 @@
         <v>46021.77726851852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>45009.32672453704</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>45009</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20039,7 +20039,7 @@
         <v>45569.31140046296</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>45562.61946759259</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44283.85297453704</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20220,7 +20220,7 @@
         <v>45191</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>44739</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20339,7 +20339,7 @@
         <v>45473.51564814815</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20396,7 +20396,7 @@
         <v>45190</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>45231.406875</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20510,7 +20510,7 @@
         <v>44900</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20567,7 +20567,7 @@
         <v>44344.89642361111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20629,7 +20629,7 @@
         <v>45058</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20691,7 +20691,7 @@
         <v>45583.38296296296</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45583</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>45549.47034722222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44433.6797337963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44613</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>45273</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44840.33315972222</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>45266.67453703703</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>45190</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45473.50560185185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>45408</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45369</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44875.34275462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>44277.39545138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21509,7 +21509,7 @@
         <v>45008.44704861111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21566,7 +21566,7 @@
         <v>45763.45927083334</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45316.67782407408</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>45473.49309027778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>45602.28886574074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44739.429375</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>45538</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45625.55699074074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45646.56313657408</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45264.94263888889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22079,7 +22079,7 @@
         <v>45078.64047453704</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22141,7 +22141,7 @@
         <v>45112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>45123.68409722222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22255,7 +22255,7 @@
         <v>45562.62109953703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>45721.54224537037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45103</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>45453.72688657408</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>45639.39581018518</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>45777.43148148148</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45369</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45783.65847222223</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45783.65224537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45405.45550925926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45553</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>44371.45925925926</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45510.39645833334</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45791.45935185185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45791.39899305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45316.6802662037</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>45792.60416666666</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>44998.51373842593</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45796.64581018518</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45405.45806712963</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45238.36009259259</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45702.8528125</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45796.90869212963</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45796.91277777778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45796.92254629629</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>

--- a/Översikt AVESTA.xlsx
+++ b/Översikt AVESTA.xlsx
@@ -575,7 +575,7 @@
         <v>45014</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>44386</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         <v>45834</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         <v>44390</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>45254.39513888889</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         <v>45103</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,7 +1135,7 @@
         <v>44699</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>46042.42626157407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         <v>45470</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         <v>45980.55704861111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1510,7 +1510,7 @@
         <v>44531</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1601,7 +1601,7 @@
         <v>45643.45725694444</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44574</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>45257</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>44643.43515046296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>45863.56149305555</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>45863.54122685185</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         <v>45758.76966435185</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>45240</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
         <v>45370.46076388889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2408,7 +2408,7 @@
         <v>45628</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         <v>45925.45873842593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>46035.67405092593</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45995.49295138889</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45961</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44298.62740740741</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         <v>44574</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>44278.5759837963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>44274.37855324074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>44356</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>44442.44880787037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
         <v>44467</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3314,7 +3314,7 @@
         <v>44308.34251157408</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44357.52767361111</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44356</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44305</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44643.43207175926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44722.83488425926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44442</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44831.72481481481</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         <v>44427.39738425926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3894,7 +3894,7 @@
         <v>44281.70380787037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>44747</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44371.46142361111</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>44477.68685185185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         <v>44344.89709490741</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44482</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         <v>44440.85440972223</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         <v>44516</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44832.65900462963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         <v>44575</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         <v>44839</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>44747</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         <v>44851</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         <v>44368.64753472222</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         <v>44512.45628472222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         <v>44454</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         <v>44428.60674768518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
         <v>44412</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4935,7 +4935,7 @@
         <v>44375.39219907407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>44480</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45252.37432870371</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>45687.59722222222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>44963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5220,7 +5220,7 @@
         <v>44967</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         <v>45510.52006944444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>44281.70633101852</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45267.34677083333</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>45008.4775</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
         <v>45243</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5562,7 +5562,7 @@
         <v>45265.48141203704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         <v>45123</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
         <v>45123</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>45082</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5790,7 +5790,7 @@
         <v>45281</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
         <v>45314</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         <v>45671.64038194445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
         <v>45019</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         <v>45496.64188657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         <v>45729.60373842593</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
         <v>45232.43732638889</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>45583.37766203703</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         <v>45583.38604166666</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
         <v>44571.43868055556</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         <v>44855.42674768518</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>45138.3903125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         <v>44438.37149305556</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6546,7 +6546,7 @@
         <v>45447.66854166667</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>44684.49467592593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>44614</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         <v>45598</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>45598</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>45560.90378472222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>44809.62644675926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45453.90877314815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>45269</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7069,7 +7069,7 @@
         <v>45751.63969907408</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7126,7 +7126,7 @@
         <v>45593.46292824074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>45040</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>45499.60596064815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>45257.66511574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>45818.66671296296</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45818.81280092592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>45079</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44746</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>45756.6733912037</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>45015</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7701,7 +7701,7 @@
         <v>45817.75277777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7763,7 +7763,7 @@
         <v>45348.59315972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7820,7 +7820,7 @@
         <v>45541</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7877,7 +7877,7 @@
         <v>45058</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45827.35201388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7996,7 +7996,7 @@
         <v>45827.35545138889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         <v>44753.56021990741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>45541</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         <v>44980</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         <v>45496.64081018518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8286,7 +8286,7 @@
         <v>45496.64434027778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>45897.3830787037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>45897.3397800926</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>45897.38670138889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>45896.60225694445</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>45897.39358796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>45896.60366898148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>45897.34166666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>45792</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         <v>45036</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>45903.66252314814</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         <v>45583</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>45721.53988425926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9047,7 +9047,7 @@
         <v>45492.53064814815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>45266.65486111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>44865</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>45909.35978009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>45093.38451388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44687.56876157408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>45910.39777777778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>45910.60125</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9508,7 +9508,7 @@
         <v>45911.34414351852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
         <v>44460.55533564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         <v>45514</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44587.26690972222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45915</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9798,7 +9798,7 @@
         <v>45719.54474537037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9855,7 +9855,7 @@
         <v>45708.85030092593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9912,7 +9912,7 @@
         <v>45196.93763888889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9974,7 +9974,7 @@
         <v>45196.94094907407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>45328</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44650</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45919.53</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10212,7 +10212,7 @@
         <v>45918</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10269,7 +10269,7 @@
         <v>45919.63253472222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45917.86349537037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>45446.43140046296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10440,7 +10440,7 @@
         <v>45922.57319444444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10497,7 +10497,7 @@
         <v>45919.82200231482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>45863.54708333333</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45776</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45863.54924768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>45863.54394675926</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>45796</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>45611.54230324074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10916,7 +10916,7 @@
         <v>45866</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>44746.45998842592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>45867.40835648148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>45729.58903935185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11144,7 +11144,7 @@
         <v>45729</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11201,7 +11201,7 @@
         <v>45925.45247685185</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11258,7 +11258,7 @@
         <v>45574.37385416667</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11315,7 +11315,7 @@
         <v>45007</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11372,7 +11372,7 @@
         <v>45929.58412037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44508</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>45162.39258101852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>45684.55741898148</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11600,7 +11600,7 @@
         <v>45796.9152662037</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11657,7 +11657,7 @@
         <v>45796.90516203704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11714,7 +11714,7 @@
         <v>44616</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11771,7 +11771,7 @@
         <v>45875</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>45527.44376157408</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11885,7 +11885,7 @@
         <v>45783.64758101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11942,7 +11942,7 @@
         <v>45877.39608796296</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11999,7 +11999,7 @@
         <v>45877.39427083333</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>45933.60197916667</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>45602.30305555555</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12170,7 +12170,7 @@
         <v>45936.42234953704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12227,7 +12227,7 @@
         <v>45881.36699074074</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>45370.48724537037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12341,7 +12341,7 @@
         <v>45936.40972222222</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>45937.69153935185</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>45511.446875</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>45939</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>45937.70412037037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45939.64701388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>45943.6643287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>44368</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45729.57234953704</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>45899.36081018519</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45008.50270833333</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>45007</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>45505.46431712963</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>45943.78539351852</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>45902.84729166667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>45944.82208333333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>45943.78372685185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>45884.66238425926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>44861</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13429,7 +13429,7 @@
         <v>44971.69914351852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
         <v>45138.40166666666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13543,7 +13543,7 @@
         <v>45940</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13600,7 +13600,7 @@
         <v>45721.53792824074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>45946.55805555556</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>45948.91614583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>45948.90693287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>45948.91340277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>45951.49759259259</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>45560.90010416666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>45496.64266203704</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14066,7 +14066,7 @@
         <v>45457.67018518518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>45953.73898148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14180,7 +14180,7 @@
         <v>45953.73703703703</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14237,7 +14237,7 @@
         <v>45321.41290509259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14294,7 +14294,7 @@
         <v>45044</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14351,7 +14351,7 @@
         <v>45957.50334490741</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14408,7 +14408,7 @@
         <v>45954.45457175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>45269</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14522,7 +14522,7 @@
         <v>44972</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>44977</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>45628.32282407407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>45007</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>45964</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>45736</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14864,7 +14864,7 @@
         <v>45736</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14921,7 +14921,7 @@
         <v>45800.36340277778</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>45729.40608796296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15040,7 +15040,7 @@
         <v>45967.38487268519</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>45912.36398148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>45889.36387731481</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>45973.58447916667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15283,7 +15283,7 @@
         <v>45979.65329861111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15340,7 +15340,7 @@
         <v>45719.55408564815</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15397,7 +15397,7 @@
         <v>45980</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15454,7 +15454,7 @@
         <v>45982.70609953703</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15511,7 +15511,7 @@
         <v>45453.44587962963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15568,7 +15568,7 @@
         <v>44309</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>45497.7091087963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45694.36291666667</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45902.84958333334</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45734.52072916667</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45040.6084837963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45370.35925925926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45756</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>44581</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>46036.41313657408</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45715</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45441.59877314815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45994.47056712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45058</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45455</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16438,7 +16438,7 @@
         <v>45902.85230324074</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16495,7 +16495,7 @@
         <v>46036</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16552,7 +16552,7 @@
         <v>45072</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16609,7 +16609,7 @@
         <v>45930</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>45281.67271990741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16723,7 +16723,7 @@
         <v>45330.58921296296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16780,7 +16780,7 @@
         <v>45996</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>44876</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45232</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45999.83986111111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45274</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>46000</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>45649.41373842592</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>45702.85523148148</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44839</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>46042.41658564815</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>46045</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>45505.66716435185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>44551</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17531,7 +17531,7 @@
         <v>46049.45141203704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17588,7 +17588,7 @@
         <v>46049.46445601852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17645,7 +17645,7 @@
         <v>44966</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17702,7 +17702,7 @@
         <v>46049.44555555555</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17759,7 +17759,7 @@
         <v>46048.61894675926</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17816,7 +17816,7 @@
         <v>45210.72341435185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44971.70265046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17930,7 +17930,7 @@
         <v>45182</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17987,7 +17987,7 @@
         <v>44893</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45671.59969907408</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18101,7 +18101,7 @@
         <v>46013.42413194444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>44734.45548611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18215,7 +18215,7 @@
         <v>46010.57958333333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18272,7 +18272,7 @@
         <v>46055.58894675926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>46055.59717592593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45769.62832175926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>46013.41940972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45009.32672453704</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18557,7 +18557,7 @@
         <v>45009</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>45569.31140046296</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>46021.77726851852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45996.44425925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45975.62692129629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45562.61946759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18909,7 +18909,7 @@
         <v>46062.35244212963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18966,7 +18966,7 @@
         <v>44283.85297453704</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19023,7 +19023,7 @@
         <v>45996.44229166667</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19080,7 +19080,7 @@
         <v>45947.67347222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19137,7 +19137,7 @@
         <v>45996.44611111111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19194,7 +19194,7 @@
         <v>46034.33011574074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19251,7 +19251,7 @@
         <v>45191</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19313,7 +19313,7 @@
         <v>46024.65234953703</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19370,7 +19370,7 @@
         <v>46024.65224537037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19427,7 +19427,7 @@
         <v>46071.44907407407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19484,7 +19484,7 @@
         <v>44739</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19541,7 +19541,7 @@
         <v>45473.51564814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45190</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45231.406875</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44900</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44344.89642361111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45058</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>46030.34128472222</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45583.38296296296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20012,7 +20012,7 @@
         <v>45583</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20074,7 +20074,7 @@
         <v>45549.47034722222</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44433.6797337963</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44613</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>45273</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44840.33315972222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>45266.67453703703</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>45190</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45473.50560185185</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45408</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20597,7 +20597,7 @@
         <v>45369</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20654,7 +20654,7 @@
         <v>44875.34275462963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20711,7 +20711,7 @@
         <v>44277.39545138889</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45008.44704861111</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>45763.45927083334</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20882,7 +20882,7 @@
         <v>45316.67782407408</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20939,7 +20939,7 @@
         <v>45473.49309027778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20996,7 +20996,7 @@
         <v>45602.28886574074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21053,7 +21053,7 @@
         <v>44739.429375</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21110,7 +21110,7 @@
         <v>45538</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21167,7 +21167,7 @@
         <v>45625.55699074074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21224,7 +21224,7 @@
         <v>45646.56313657408</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45264.94263888889</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45078.64047453704</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21400,7 +21400,7 @@
         <v>45112</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>45123.68409722222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45562.62109953703</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>45721.54224537037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>45103</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>45453.72688657408</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21757,7 +21757,7 @@
         <v>45639.39581018518</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>45777.43148148148</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21876,7 +21876,7 @@
         <v>45369</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21933,7 +21933,7 @@
         <v>45783.65847222223</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21990,7 +21990,7 @@
         <v>45783.65224537037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22047,7 +22047,7 @@
         <v>45405.45550925926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22104,7 +22104,7 @@
         <v>45553</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>44371.45925925926</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>45510.39645833334</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>45791.45935185185</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45791.39899305555</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45316.6802662037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45792.60416666666</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22503,7 +22503,7 @@
         <v>44998.51373842593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45796.64581018518</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22617,7 +22617,7 @@
         <v>45405.45806712963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>45238.36009259259</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22731,7 +22731,7 @@
         <v>45702.8528125</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>45796.90869212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22845,7 +22845,7 @@
         <v>45796.91277777778</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22902,7 +22902,7 @@
         <v>45796.92254629629</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>45656.48398148148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>45505.45959490741</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>45799</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>45799.46366898148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>45799</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23244,7 +23244,7 @@
         <v>45799</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23301,7 +23301,7 @@
         <v>45803.60725694444</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23358,7 +23358,7 @@
         <v>45803.61549768518</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23415,7 +23415,7 @@
         <v>45800.6515162037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
         <v>45803.62076388889</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23529,7 +23529,7 @@
         <v>45265</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23586,7 +23586,7 @@
         <v>45804.49783564815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45807.47263888889</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45807.47407407407</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45817.30672453704</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
